--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,30 +489,30 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+          <t>BFO_0000029</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,72 +520,67 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A geographical location within a country where the intervention takes place.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+          <t>BCIO:026048</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -594,117 +589,107 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -713,55 +698,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENVO:01000856</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>road</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Incorporated populated place</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>ENVO:01000856</t>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -770,379 +760,374 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>beach</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>BCIO:026041</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>student hall</t>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1150,16 +1135,16 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>dentist facility</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1168,7 +1153,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1176,92 +1161,92 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1269,25 +1254,30 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>care home facility</t>
+          <t>homeless setting</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1295,104 +1285,104 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>community healthcare facility</t>
+          <t>temporary residence</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1401,28 +1391,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1430,135 +1425,125 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>rehabilitation facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1567,7 +1552,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1575,103 +1560,118 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>high school</t>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1679,30 +1679,25 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1710,25 +1705,30 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1736,73 +1736,83 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+          <t>A community facility used for exercising.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1811,7 +1821,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1819,30 +1829,30 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+          <t>NCIT:C53536</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1850,61 +1860,56 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1912,30 +1917,25 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1943,47 +1943,47 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1992,86 +1992,86 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>prison</t>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2080,81 +2080,76 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2163,7 +2158,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2171,16 +2166,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2189,331 +2189,347 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>developed country</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BCIO:026005</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>attribute of location</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,12 +489,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -506,13 +501,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>area social and economic condition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,90 +515,100 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -615,21 +620,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -641,21 +646,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -667,26 +672,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -698,26 +698,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -729,114 +724,114 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -846,90 +841,85 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>mobile van</t>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -939,147 +929,152 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>car; bicycle; motorbike</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>BCIO:026033</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>factory facility</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>office facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1087,35 +1082,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>research lab</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1127,7 +1117,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1135,39 +1125,44 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>household residence</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1177,7 +1172,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
@@ -1215,21 +1210,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1239,7 +1234,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>retirement home</t>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
@@ -1277,21 +1272,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1301,28 +1296,28 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>retail facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1330,82 +1325,82 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1417,7 +1412,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1425,30 +1420,25 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1456,46 +1446,56 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1504,55 +1504,55 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>community outpatient clinic facility</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1560,39 +1560,44 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1600,16 +1605,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1617,13 +1622,13 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1631,47 +1636,42 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1679,39 +1679,44 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1721,107 +1726,97 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1829,18 +1824,13 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -1852,7 +1842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1860,30 +1850,20 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>rehabilitation facility</t>
+          <t>school facility</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1892,38 +1872,43 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>drug or alcohol rehabilitation facility</t>
+          <t>secondary school</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -1935,52 +1920,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -1992,57 +1972,52 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2054,68 +2029,83 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2123,61 +2113,61 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2189,57 +2179,47 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+          <t>BCIO:026049</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2251,52 +2231,47 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2304,56 +2279,61 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>BCIO:026041</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2365,99 +2345,119 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -2465,30 +2465,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -2498,28 +2498,28 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>developed country</t>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">developing country </t>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>attribute of location</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,25 +489,30 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>area social and economic condition</t>
+          <t>within-country location</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -515,7 +520,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -523,30 +528,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -554,53 +559,48 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>developed country</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>population and resource density</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -608,137 +608,167 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>urban area</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>BCIO:026011</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -748,59 +778,54 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -808,16 +833,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -825,13 +850,13 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>temporary residence</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -839,30 +864,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -870,42 +895,47 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -913,13 +943,13 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -927,16 +957,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -944,13 +974,13 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -958,9 +988,9 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
@@ -989,7 +1019,7 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
@@ -998,21 +1028,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1024,21 +1054,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1046,35 +1076,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>research lab</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1084,54 +1109,59 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1139,78 +1169,68 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1218,13 +1238,13 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1232,16 +1252,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1249,123 +1269,98 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>homeless setting</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1374,19 +1369,24 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
+          <t>middle school</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1395,38 +1395,43 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>hospital outpatient clinic facility</t>
+          <t>secondary school</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1438,33 +1443,38 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1472,87 +1482,82 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>community healthcare facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1560,13 +1565,13 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1574,149 +1579,134 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1724,68 +1714,78 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1793,13 +1793,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -1807,16 +1807,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1824,13 +1824,13 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -1842,151 +1842,171 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>university facility</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -1994,30 +2014,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2029,114 +2049,99 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2144,108 +2149,128 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2257,21 +2282,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2281,85 +2306,85 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -2367,30 +2392,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2398,138 +2423,113 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+          <t>BCIO:050914</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>attribute of location</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,30 +489,25 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>within-country location</t>
+          <t>area social and economic condition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,87 +515,92 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>BCIO:026005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -608,201 +608,171 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>research lab</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>student hall</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -811,31 +781,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
@@ -859,12 +829,12 @@
           <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
@@ -873,69 +843,64 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -943,149 +908,154 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>arts and entertainment facility</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1093,144 +1063,149 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>prison</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1238,73 +1213,68 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>university facility</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1313,7 +1283,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1321,37 +1291,42 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1360,33 +1335,38 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1395,86 +1375,86 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>drug or alcohol rehabilitation facility</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>high school</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>community facility</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1482,16 +1462,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>dentist facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1500,7 +1480,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1508,56 +1488,61 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>rehabilitation facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1565,125 +1550,135 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A community facility used for exercising.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1692,7 +1687,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1700,30 +1695,25 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1731,30 +1721,30 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1762,30 +1752,25 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1793,104 +1778,94 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>school facility</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BCIO:026025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1899,226 +1874,246 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2127,153 +2122,133 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2282,174 +2257,179 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>park</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2458,78 +2438,98 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -1205,7 +1205,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1213,51 +1213,56 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1266,38 +1271,33 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>hospital outpatient clinic facility</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1488,13 +1488,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1504,14 +1504,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1519,13 +1519,13 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1535,14 +1535,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1550,13 +1550,13 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>hospitality and catering facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1566,14 +1566,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1581,13 +1581,13 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1612,13 +1612,13 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>office facility</t>
+          <t>educational facility</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1661,21 +1661,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1687,7 +1687,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1695,13 +1695,13 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1752,46 +1752,51 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>school facility</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1800,29 +1805,24 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>middle school</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1831,12 +1831,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>middle school</t>
+          <t>primary school</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1848,21 +1848,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1874,21 +1874,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>criminal justice facility</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -1898,28 +1898,28 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -1929,33 +1929,28 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -1965,7 +1960,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>army; navy; air force</t>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
         </is>
       </c>
     </row>
@@ -2096,13 +2096,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2110,33 +2110,38 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2148,21 +2153,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2170,82 +2175,97 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2257,52 +2277,47 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>beach</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2312,147 +2327,137 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>grassland area</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>park</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2460,30 +2465,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>road</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -2491,30 +2496,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -2522,14 +2527,9 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>NCIT:C141287</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -501,13 +501,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>area social and economic condition</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -515,103 +515,88 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -620,24 +605,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -646,24 +636,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>developed country</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -672,24 +667,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -698,12 +698,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>architectural structure</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -712,10 +712,15 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -724,13 +729,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -738,41 +743,46 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>factory facility</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>mobile van</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -781,86 +791,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -869,241 +884,221 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>student hall</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>park</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>polyclinic</t>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1112,117 +1107,122 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1231,76 +1231,86 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>United Kingdom; Spain</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1309,24 +1319,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1335,55 +1350,60 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+          <t>prison</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1392,126 +1412,116 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1519,30 +1529,25 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1550,30 +1555,30 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1581,30 +1586,30 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>NCIT:C53536</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1612,47 +1617,47 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+          <t>polyclinic</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1661,7 +1666,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1669,16 +1674,21 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1687,7 +1697,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1695,16 +1705,21 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1713,7 +1728,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1721,30 +1736,25 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1752,20 +1762,30 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1774,46 +1794,41 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>drug or alcohol rehabilitation facility</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>high school</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1822,24 +1837,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1848,303 +1863,283 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>prison</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+          <t>BCIO:026023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+          <t xml:space="preserve">nursery school </t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>bedsit</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2153,122 +2148,117 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>retirement home</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>student hall</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2277,24 +2267,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2303,55 +2298,55 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>factory facility</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>community facility</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2360,7 +2355,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2368,16 +2363,16 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>path or pavement for pedestrians</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2386,7 +2381,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2394,16 +2389,21 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2412,124 +2412,124 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>mosque; church; temple</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>YMCA; working mens club</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>grassland area</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,67 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>attribute of location</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -501,47 +508,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>urban area</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -553,21 +552,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>area social and economic condition</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -579,21 +584,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -605,26 +611,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -636,26 +643,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>developed country</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -667,26 +670,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">developing country </t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -698,26 +697,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BCIO:026008</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -729,26 +724,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -760,26 +751,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mobile van</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -791,31 +783,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -827,21 +815,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -853,83 +847,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>BFO:0000141</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BFO:0000006</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -941,21 +913,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -967,7 +945,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -975,13 +953,19 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -993,21 +977,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1019,26 +1009,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1050,26 +1041,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1081,21 +1078,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1107,26 +1110,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1138,26 +1142,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1169,26 +1169,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+          <t>BCIO:026046</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1200,26 +1196,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>A geographical location within a country.</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1231,26 +1228,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>United Kingdom; Spain</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1262,21 +1260,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1288,26 +1292,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1319,26 +1324,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>army; navy; air force</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1350,26 +1351,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1381,26 +1383,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1412,26 +1410,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1443,26 +1437,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1474,42 +1464,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000061</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1521,21 +1508,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -1547,7 +1540,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1555,18 +1548,14 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>educational facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -1578,26 +1567,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1609,52 +1599,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>polyclinic</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>secondary school</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -1666,26 +1653,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>middle school</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -1697,26 +1680,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>primary school</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1728,21 +1707,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -1754,26 +1734,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1785,21 +1761,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -1811,21 +1793,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -1837,7 +1820,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1845,13 +1828,19 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -1863,28 +1852,34 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1893,12 +1888,18 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>middle school</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -1910,52 +1911,44 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>hospital outpatient clinic facility</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -1967,26 +1960,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>early years facility</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -1998,21 +1992,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -2024,21 +2024,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -2050,31 +2056,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -2086,26 +2088,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2117,26 +2115,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -2148,7 +2147,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2157,17 +2156,13 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
+          <t>dentist facility</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>retirement home</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2179,26 +2174,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>A multiple occupancy residence where many students live.</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>student hall</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2210,7 +2206,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2218,13 +2214,24 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>household residence</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2236,7 +2243,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2244,18 +2251,14 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>homeless setting</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2267,7 +2270,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2275,18 +2278,19 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2298,21 +2302,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2324,26 +2334,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -2355,21 +2366,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -2381,26 +2398,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>arts and entertainment facility</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>student residence</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -2412,26 +2430,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -2443,26 +2462,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -2474,26 +2494,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -2505,7 +2521,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2513,21 +2529,317 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BCIO:026031</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BCIO:026034</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BCIO:026030</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>sport and exercise facility</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BCIO:026033</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BCIO:026035</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BCIO:026032</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BCIO:026000</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BCIO:026018</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -444,44 +444,44 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,15 +491,15 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -508,42 +508,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:026018</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -552,57 +567,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>BFO:0000141</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -611,30 +616,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -643,25 +648,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>mobile van</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -670,7 +680,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -678,17 +688,17 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -697,7 +707,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -705,17 +715,22 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -724,7 +739,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -732,17 +747,27 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -751,30 +776,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+          <t>BCIO:026046</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -783,30 +803,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>grassland area</t>
-        </is>
-      </c>
+          <t>BCIO:026047</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -815,30 +830,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+          <t>BCIO:026048</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -847,64 +857,84 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BFO:0000141</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
-        </is>
-      </c>
+          <t>BCIO:026050</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BFO:0000006</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -913,7 +943,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -921,22 +951,22 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>within-country location</t>
+          <t>park</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -945,7 +975,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -953,22 +983,22 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -977,30 +1007,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1009,30 +1039,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1041,67 +1071,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BFO:0000006</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1110,7 +1120,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1118,22 +1128,22 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>mobile van</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1142,7 +1152,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1150,17 +1160,22 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>within-country location</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1169,57 +1184,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>OMRSE:00000061</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1228,30 +1228,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1260,7 +1260,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1268,22 +1268,22 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1292,30 +1292,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1324,25 +1324,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1351,30 +1356,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>bedsit</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1383,25 +1388,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>student hall</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1410,25 +1420,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>retirement home</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1437,7 +1452,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1446,16 +1461,16 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1464,42 +1479,57 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:026029</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1508,30 +1538,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1540,25 +1570,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1567,7 +1602,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1576,21 +1611,21 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1599,7 +1634,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1608,43 +1643,53 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>high school</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
+          <t>A community facility used for exercising.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1653,25 +1698,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1680,25 +1725,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1707,25 +1752,35 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>university facility</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1734,25 +1789,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1761,30 +1821,30 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>prison</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1793,25 +1853,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1820,39 +1880,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1861,16 +1911,21 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>care home facility</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1879,7 +1934,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1888,21 +1943,21 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1911,47 +1966,52 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1960,7 +2020,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1969,21 +2029,21 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1992,7 +2052,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2001,21 +2061,21 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2024,7 +2084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2033,21 +2093,21 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2056,30 +2116,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2088,25 +2143,30 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>prison</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2115,30 +2175,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2147,7 +2202,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2156,16 +2211,16 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>dentist facility</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2174,30 +2229,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2206,35 +2261,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2243,57 +2288,52 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2302,30 +2342,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2334,30 +2369,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>bedsit</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2366,30 +2396,30 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>retirement home</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2398,30 +2428,30 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>student hall</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2430,62 +2460,47 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>BCIO:026000</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2494,25 +2509,30 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2521,30 +2541,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2553,30 +2573,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2585,62 +2605,42 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2649,30 +2649,30 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2681,30 +2681,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>arts and entertainment facility</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2713,25 +2708,30 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>developed country</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2740,47 +2740,52 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
-        </is>
-      </c>
+          <t>BCIO:026007</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
+          <t>BCIO:050914</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2789,25 +2794,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2816,30 +2821,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
+          <t>BCIO:026008</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -812,7 +812,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that has positive or negative valence.</t>
+          <t>A mental process that has positive or negative valence.</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land.</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -4215,7 +4215,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -4250,7 +4250,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -4277,7 +4277,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>forested area</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -4700,7 +4700,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A facility which supports the undertaking of scientific research or measurements.</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -4900,7 +4900,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function.</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
@@ -5518,14 +5518,14 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -6225,7 +6225,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -6360,7 +6360,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land.</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -6411,7 +6411,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -6620,7 +6620,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -6705,7 +6705,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -6759,7 +6759,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>forested area</t>
         </is>
       </c>
       <c r="J232" t="inlineStr"/>
@@ -6925,7 +6925,7 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>fiat object</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -7030,7 +7030,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -7085,7 +7085,7 @@
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>forested area</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -7400,7 +7400,7 @@
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
@@ -8155,7 +8155,7 @@
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
         </is>
       </c>
     </row>
